--- a/data/trans_camb/MCS12_SP_R3-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/MCS12_SP_R3-Provincia-trans_camb.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>15,1</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-10,52</t>
+          <t>-10,96</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>27,4</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-18,33</t>
+          <t>-18,42</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>21,22</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-14,33</t>
+          <t>-14,61</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,77; 22,59</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-16,03; -5,09</t>
+          <t>-16,44; -5,76</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,21; 35,68</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-24,22; -12,74</t>
+          <t>-24,33; -12,76</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,71; 26,99</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-18,74; -10,44</t>
+          <t>-19,03; -10,71</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>85,99%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -748,12 +748,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-59,88%</t>
+          <t>-62,37%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>106,71%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -763,12 +763,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-71,36%</t>
+          <t>-71,73%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>98,54%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-66,54%</t>
+          <t>-67,84%</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>33,07; 155,07</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -801,12 +801,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-76,26; -35,22</t>
+          <t>-77,81; -38,17</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>63,73; 164,07</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -816,12 +816,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-80,11; -57,92</t>
+          <t>-80,47; -57,91</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>62,91; 142,93</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-75,44; -55,25</t>
+          <t>-76,47; -56,43</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-10,63</t>
+          <t>-10,99</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-16,58</t>
+          <t>-16,67</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-13,55</t>
+          <t>-13,92</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-16,54; -4,79</t>
+          <t>-16,97; -5,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-22,34; -11,34</t>
+          <t>-22,47; -11,4</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-17,31; -9,49</t>
+          <t>-17,68; -9,88</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-39,96%</t>
+          <t>-41,31%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-40,58%</t>
+          <t>-40,81%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-40,08%</t>
+          <t>-41,19%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-55,21; -18,66</t>
+          <t>-56,77; -20,78</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-50,03; -28,72</t>
+          <t>-50,34; -29,19</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-49,23; -29,46</t>
+          <t>-50,24; -30,79</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>9,63</t>
+          <t>9,44</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>9,85</t>
+          <t>9,64</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>9,89</t>
+          <t>9,61</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,78; 14,16</t>
+          <t>5,59; 14,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,64; 14,18</t>
+          <t>4,43; 13,93</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,96; 13,22</t>
+          <t>6,78; 12,96</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>266,4%</t>
+          <t>261,3%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>96,85%</t>
+          <t>94,82%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>141,81%</t>
+          <t>137,86%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>93,75; 707,45</t>
+          <t>91,06; 715,15</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>36,26; 180,52</t>
+          <t>35,02; 177,59</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>79,58; 234,47</t>
+          <t>77,0; 230,09</t>
         </is>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>17,05</t>
+          <t>12,48</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1290,12 +1290,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,83</t>
+          <t>2,61</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>30,27</t>
+          <t>25,66</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,04</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>23,66</t>
+          <t>19,21</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>3,95</t>
+          <t>2,09</t>
         </is>
       </c>
     </row>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>12,3; 21,45</t>
+          <t>6,73; 17,93</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1343,12 +1343,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 8,03</t>
+          <t>-2,6; 7,74</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>24,29; 35,79</t>
+          <t>19,24; 31,95</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1358,12 +1358,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 9,71</t>
+          <t>-7,13; 7,4</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>19,69; 27,29</t>
+          <t>15,19; 23,34</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,13; 7,62</t>
+          <t>-3,12; 6,16</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>173,68%</t>
+          <t>127,1%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1396,12 +1396,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>28,81%</t>
+          <t>26,63%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>182,67%</t>
+          <t>154,86%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1411,12 +1411,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>24,36%</t>
+          <t>3,97%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>178,5%</t>
+          <t>144,92%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>29,82%</t>
+          <t>15,73%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>95,24; 300,79</t>
+          <t>54,27; 238,23</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1449,12 +1449,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-20,96; 104,98</t>
+          <t>-22,59; 100,17</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>121,59; 269,36</t>
+          <t>98,54; 233,07</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1464,12 +1464,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-9,64; 67,86</t>
+          <t>-38,66; 50,01</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>128,17; 241,91</t>
+          <t>95,95; 198,18</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 66,87</t>
+          <t>-20,29; 52,19</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>17,78</t>
+          <t>17,97</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>21,41</t>
+          <t>21,93</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>20,0</t>
+          <t>20,33</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>8,56; 27,14</t>
+          <t>9,15; 27,42</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>12,02; 28,9</t>
+          <t>12,68; 29,37</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>13,5; 26,19</t>
+          <t>13,9; 26,53</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>58,38%</t>
+          <t>59,01%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>56,23%</t>
+          <t>57,6%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>58,29%</t>
+          <t>59,28%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>25,76; 106,09</t>
+          <t>26,25; 106,92</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>27,3; 87,65</t>
+          <t>28,66; 88,87</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>35,16; 85,22</t>
+          <t>36,21; 85,9</t>
         </is>
       </c>
     </row>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>11,18</t>
+          <t>10,95</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -1737,7 +1737,7 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>5,11</t>
+          <t>5,08</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>8,07</t>
+          <t>7,9</t>
         </is>
       </c>
     </row>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>7,02; 16,1</t>
+          <t>6,8; 15,81</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 10,53</t>
+          <t>-0,08; 10,54</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>4,34; 11,88</t>
+          <t>4,18; 11,65</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>215,99%</t>
+          <t>211,48%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>34,4%</t>
+          <t>34,23%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>80,15%</t>
+          <t>78,47%</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>96,45; 478,96</t>
+          <t>93,19; 468,42</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 91,63</t>
+          <t>-1,3; 90,72</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>36,45; 138,44</t>
+          <t>35,02; 136,79</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>12,43</t>
+          <t>12,86</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>25,39</t>
+          <t>31,89</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>20,04</t>
+          <t>24,26</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>7,42; 17,36</t>
+          <t>7,77; 18,17</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>15,05; 43,81</t>
+          <t>15,06; 54,65</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>13,39; 34,03</t>
+          <t>13,45; 44,32</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>87,63%</t>
+          <t>90,73%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>126,26%</t>
+          <t>158,59%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>116,5%</t>
+          <t>141,02%</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>47,09; 145,41</t>
+          <t>50,02; 154,76</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>71,2; 249,25</t>
+          <t>71,37; 317,36</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>73,86; 201,15</t>
+          <t>75,25; 266,39</t>
         </is>
       </c>
     </row>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>-8,69</t>
+          <t>-13,13</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>-5,68</t>
+          <t>-5,51</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>-7,24</t>
+          <t>-10,27</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-14,46; -4,06</t>
+          <t>-23,91; -6,07</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-10,69; -0,9</t>
+          <t>-10,4; -0,67</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-10,96; -3,98</t>
+          <t>-19,7; -5,18</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>-29,16%</t>
+          <t>-44,08%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
@@ -2275,7 +2275,7 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>-15,89%</t>
+          <t>-15,41%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>-22,04%</t>
+          <t>-31,28%</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-44,93; -15,4</t>
+          <t>-75,89; -21,12</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-27,47; -2,46</t>
+          <t>-26,79; -1,43</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-32,19; -12,85</t>
+          <t>-59,11; -16,4</t>
         </is>
       </c>
     </row>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>1,26</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>3,32</t>
+          <t>4,36</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>2,52</t>
+          <t>2,16</t>
         </is>
       </c>
     </row>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 3,38</t>
+          <t>-4,5; 2,24</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>0,53; 10,97</t>
+          <t>-0,47; 18,21</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>0,54; 5,9</t>
+          <t>-1,14; 8,28</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>6,77%</t>
+          <t>-1,47%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>12,51%</t>
+          <t>16,43%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
@@ -2506,7 +2506,7 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>11,14%</t>
+          <t>9,53%</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-4,74; 18,81</t>
+          <t>-23,83; 12,47</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
@@ -2544,7 +2544,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>1,83; 41,03</t>
+          <t>-1,56; 69,55</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>2,22; 26,72</t>
+          <t>-4,96; 37,1</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/MCS12_SP_R3-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/MCS12_SP_R3-Provincia-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,77; 22,59</t>
+          <t>7,99; 21,96</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,75; 21,11</t>
+          <t>5,65; 20,87</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-16,44; -5,76</t>
+          <t>-16,34; -5,53</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>19,21; 35,68</t>
+          <t>19,74; 35,93</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,21; 26,11</t>
+          <t>10,85; 25,94</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-24,33; -12,76</t>
+          <t>-25,02; -12,44</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>15,71; 26,99</t>
+          <t>15,82; 27,04</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>10,64; 21,17</t>
+          <t>10,07; 21,7</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-19,03; -10,71</t>
+          <t>-19,6; -10,97</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>33,07; 155,07</t>
+          <t>37,15; 162,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>31,75; 146,36</t>
+          <t>27,35; 150,36</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-77,81; -38,17</t>
+          <t>-77,45; -39,54</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>63,73; 164,07</t>
+          <t>65,37; 167,35</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>30,24; 122,52</t>
+          <t>34,47; 119,28</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-80,47; -57,91</t>
+          <t>-81,5; -58,37</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>62,91; 142,93</t>
+          <t>64,61; 144,25</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>43,28; 112,86</t>
+          <t>40,17; 116,03</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-76,47; -56,43</t>
+          <t>-77,37; -56,82</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-16,98; -6,14</t>
+          <t>-16,33; -5,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-22,97; -13,57</t>
+          <t>-23,18; -13,51</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-16,97; -5,46</t>
+          <t>-16,18; -5,19</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-21,22; -8,88</t>
+          <t>-20,7; -9,22</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-31,34; -19,8</t>
+          <t>-30,77; -20,19</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-22,47; -11,4</t>
+          <t>-22,0; -10,98</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-17,0; -8,92</t>
+          <t>-17,42; -9,35</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-25,55; -18,41</t>
+          <t>-25,42; -18,16</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-17,68; -9,88</t>
+          <t>-17,9; -9,67</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-57,33; -25,62</t>
+          <t>-55,85; -22,42</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-76,56; -56,08</t>
+          <t>-77,78; -55,97</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-56,77; -20,78</t>
+          <t>-55,37; -21,23</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-48,55; -23,4</t>
+          <t>-47,56; -24,27</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-71,02; -52,62</t>
+          <t>-70,72; -52,43</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-50,34; -29,19</t>
+          <t>-50,47; -28,8</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-47,68; -28,72</t>
+          <t>-48,95; -29,29</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-70,56; -57,31</t>
+          <t>-70,38; -56,66</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-50,24; -30,79</t>
+          <t>-49,81; -30,95</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,42; 16,05</t>
+          <t>7,33; 16,68</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,37; 10,01</t>
+          <t>2,45; 10,02</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,59; 14,0</t>
+          <t>5,47; 13,52</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>8,13; 19,54</t>
+          <t>7,85; 19,14</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 9,93</t>
+          <t>-0,72; 9,57</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,43; 13,93</t>
+          <t>4,69; 14,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>9,08; 16,1</t>
+          <t>8,73; 16,22</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,26; 8,72</t>
+          <t>2,54; 8,71</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,78; 12,96</t>
+          <t>6,6; 13,22</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>136,18; 835,57</t>
+          <t>121,73; 759,12</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>36,39; 462,82</t>
+          <t>37,97; 420,19</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>91,06; 715,15</t>
+          <t>96,8; 639,31</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>61,48; 243,75</t>
+          <t>61,44; 238,02</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-5,46; 123,81</t>
+          <t>-6,31; 117,93</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>35,02; 177,59</t>
+          <t>36,1; 181,34</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>102,62; 295,28</t>
+          <t>102,02; 291,06</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>27,06; 160,24</t>
+          <t>29,37; 156,84</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>77,0; 230,09</t>
+          <t>74,82; 235,92</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,73; 17,93</t>
+          <t>7,33; 18,28</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,29; 14,48</t>
+          <t>4,31; 14,79</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 7,74</t>
+          <t>-2,41; 7,92</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>19,24; 31,95</t>
+          <t>19,82; 32,44</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>9,53; 21,65</t>
+          <t>8,95; 21,54</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-7,13; 7,4</t>
+          <t>-8,11; 6,88</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>15,19; 23,34</t>
+          <t>15,14; 23,63</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>8,35; 16,53</t>
+          <t>8,57; 17,08</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 6,16</t>
+          <t>-2,66; 6,27</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>54,27; 238,23</t>
+          <t>59,58; 245,24</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>34,83; 194,19</t>
+          <t>34,25; 186,63</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-22,59; 100,17</t>
+          <t>-22,2; 101,54</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>98,54; 233,07</t>
+          <t>98,99; 230,88</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>50,5; 153,13</t>
+          <t>45,4; 152,53</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-38,66; 50,01</t>
+          <t>-39,15; 46,48</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>95,95; 198,18</t>
+          <t>97,35; 201,67</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>55,22; 142,41</t>
+          <t>58,64; 152,4</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-20,29; 52,19</t>
+          <t>-18,82; 52,83</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-25,12; -9,44</t>
+          <t>-25,62; -9,74</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>1,97; 19,41</t>
+          <t>1,32; 20,21</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>9,15; 27,42</t>
+          <t>8,53; 26,1</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-15,86; 2,43</t>
+          <t>-15,63; 3,24</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>3,66; 21,58</t>
+          <t>2,76; 22,78</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>12,68; 29,37</t>
+          <t>13,18; 30,24</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-17,44; -5,28</t>
+          <t>-17,48; -5,21</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>4,61; 18,01</t>
+          <t>4,9; 17,61</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>13,9; 26,53</t>
+          <t>14,25; 26,19</t>
         </is>
       </c>
     </row>
@@ -1655,54 +1655,54 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-72,74; -36,82</t>
+          <t>-71,68; -33,55</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>5,84; 77,48</t>
+          <t>3,99; 80,84</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>26,25; 106,92</t>
+          <t>24,15; 101,02</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-37,52; 7,91</t>
+          <t>-36,25; 8,99</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>8,38; 65,98</t>
+          <t>6,38; 68,96</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>28,66; 88,87</t>
+          <t>28,94; 94,42</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-47,14; -17,13</t>
+          <t>-47,25; -17,15</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>12,11; 58,42</t>
+          <t>13,7; 57,04</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>36,21; 85,9</t>
+          <t>37,46; 85,78</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>6,56; 16,51</t>
+          <t>5,8; 16,83</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>2,62; 11,81</t>
+          <t>2,45; 12,01</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>6,8; 15,81</t>
+          <t>6,51; 15,82</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>3,72; 17,08</t>
+          <t>4,25; 18,2</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>1,61; 15,37</t>
+          <t>2,19; 15,29</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 10,54</t>
+          <t>-0,57; 10,77</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>6,79; 15,46</t>
+          <t>6,48; 15,24</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>3,56; 12,44</t>
+          <t>3,07; 11,73</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>4,18; 11,65</t>
+          <t>4,23; 11,45</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>91,84; 479,78</t>
+          <t>68,33; 480,54</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>35,21; 360,17</t>
+          <t>23,17; 331,84</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>93,19; 468,42</t>
+          <t>78,72; 453,95</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>15,28; 137,56</t>
+          <t>24,31; 153,75</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>7,74; 124,25</t>
+          <t>11,34; 132,95</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 90,72</t>
+          <t>-2,86; 92,88</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>55,67; 182,16</t>
+          <t>52,22; 180,03</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>27,71; 143,09</t>
+          <t>27,11; 144,78</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>35,02; 136,79</t>
+          <t>34,66; 138,3</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>0,42; 8,95</t>
+          <t>0,8; 9,03</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>2,11; 11,0</t>
+          <t>2,58; 10,87</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>7,77; 18,17</t>
+          <t>7,54; 18,44</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 8,21</t>
+          <t>-0,66; 8,51</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>4,69; 14,65</t>
+          <t>4,78; 14,61</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>15,06; 54,65</t>
+          <t>14,7; 60,82</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>0,91; 7,46</t>
+          <t>1,14; 7,46</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>4,67; 11,47</t>
+          <t>4,87; 11,41</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>13,45; 44,32</t>
+          <t>13,45; 48,09</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>2,57; 74,86</t>
+          <t>5,0; 77,2</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>12,45; 88,65</t>
+          <t>14,73; 89,67</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>50,02; 154,76</t>
+          <t>43,21; 149,68</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-6,47; 46,96</t>
+          <t>-2,98; 48,15</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>21,39; 81,88</t>
+          <t>20,98; 84,69</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>71,37; 317,36</t>
+          <t>70,64; 338,35</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>5,17; 47,02</t>
+          <t>6,15; 47,37</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>25,65; 74,44</t>
+          <t>26,13; 72,09</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>75,25; 266,39</t>
+          <t>75,06; 287,03</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 8,82</t>
+          <t>-1,07; 8,56</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-15,25; -6,45</t>
+          <t>-15,24; -6,56</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-23,91; -6,07</t>
+          <t>-22,27; -5,56</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 8,32</t>
+          <t>-1,24; 8,68</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-18,01; -8,38</t>
+          <t>-17,67; -8,57</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-10,4; -0,67</t>
+          <t>-10,04; -0,61</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>0,19; 6,68</t>
+          <t>0,41; 7,23</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-15,22; -8,71</t>
+          <t>-14,94; -8,8</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-19,7; -5,18</t>
+          <t>-19,54; -5,03</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-3,99; 31,9</t>
+          <t>-3,53; 31,01</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-47,6; -23,61</t>
+          <t>-47,53; -24,05</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-75,89; -21,12</t>
+          <t>-74,34; -19,85</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 25,45</t>
+          <t>-3,2; 26,07</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-47,06; -25,11</t>
+          <t>-46,16; -25,4</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-26,79; -1,43</t>
+          <t>-26,16; -2,1</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>0,61; 21,48</t>
+          <t>1,2; 23,01</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-44,05; -27,58</t>
+          <t>-43,41; -28,28</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-59,11; -16,4</t>
+          <t>-56,33; -15,87</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>1,66; 6,01</t>
+          <t>1,43; 5,63</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 2,23</t>
+          <t>-1,77; 2,2</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-4,5; 2,24</t>
+          <t>-4,36; 2,07</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>3,96; 8,39</t>
+          <t>3,88; 8,51</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 2,47</t>
+          <t>-1,99; 2,46</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 18,21</t>
+          <t>-0,6; 17,54</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>3,36; 6,36</t>
+          <t>3,34; 6,43</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 1,66</t>
+          <t>-1,22; 1,66</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 8,28</t>
+          <t>-1,04; 9,47</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>8,57; 33,9</t>
+          <t>7,09; 31,83</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-7,85; 12,79</t>
+          <t>-8,89; 12,62</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-23,83; 12,47</t>
+          <t>-23,33; 11,61</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>14,14; 32,89</t>
+          <t>13,78; 33,52</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-6,84; 9,75</t>
+          <t>-7,27; 9,84</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 69,55</t>
+          <t>-1,74; 71,67</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>14,25; 28,71</t>
+          <t>14,31; 29,76</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>-5,5; 7,57</t>
+          <t>-5,15; 7,66</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-4,96; 37,1</t>
+          <t>-4,77; 42,23</t>
         </is>
       </c>
     </row>
